--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H2">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.581373333333334</v>
+        <v>14.69614866666667</v>
       </c>
       <c r="N2">
-        <v>28.74412</v>
+        <v>44.088446</v>
       </c>
       <c r="O2">
-        <v>0.6094546925631529</v>
+        <v>0.7133564251716612</v>
       </c>
       <c r="P2">
-        <v>0.6094546925631529</v>
+        <v>0.7133564251716613</v>
       </c>
       <c r="Q2">
-        <v>19.07495254281333</v>
+        <v>38.63957945244111</v>
       </c>
       <c r="R2">
-        <v>171.67457288532</v>
+        <v>347.75621507197</v>
       </c>
       <c r="S2">
-        <v>0.06843235112368762</v>
+        <v>0.1008911089839763</v>
       </c>
       <c r="T2">
-        <v>0.06843235112368762</v>
+        <v>0.1008911089839763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H3">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.405531</v>
       </c>
       <c r="O3">
-        <v>0.284234263364153</v>
+        <v>0.2169031240449683</v>
       </c>
       <c r="P3">
-        <v>0.2842342633641529</v>
+        <v>0.2169031240449683</v>
       </c>
       <c r="Q3">
-        <v>8.896075706482334</v>
+        <v>11.74874887122722</v>
       </c>
       <c r="R3">
-        <v>80.06468135834099</v>
+        <v>105.738739841045</v>
       </c>
       <c r="S3">
-        <v>0.03191511879269497</v>
+        <v>0.03067694627089085</v>
       </c>
       <c r="T3">
-        <v>0.03191511879269496</v>
+        <v>0.03067694627089085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H4">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.517079666666667</v>
+        <v>1.308497333333333</v>
       </c>
       <c r="N4">
-        <v>4.551239</v>
+        <v>3.925492</v>
       </c>
       <c r="O4">
-        <v>0.09649883056174381</v>
+        <v>0.0635149385886714</v>
       </c>
       <c r="P4">
-        <v>0.09649883056174381</v>
+        <v>0.06351493858867141</v>
       </c>
       <c r="Q4">
-        <v>3.020258332347666</v>
+        <v>3.440342624548889</v>
       </c>
       <c r="R4">
-        <v>27.182324991129</v>
+        <v>30.96308362094</v>
       </c>
       <c r="S4">
-        <v>0.0108353285922763</v>
+        <v>0.008983016575084707</v>
       </c>
       <c r="T4">
-        <v>0.0108353285922763</v>
+        <v>0.008983016575084707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H5">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.15426</v>
+        <v>0.1282543333333333</v>
       </c>
       <c r="N5">
-        <v>0.46278</v>
+        <v>0.384763</v>
       </c>
       <c r="O5">
-        <v>0.00981221351095027</v>
+        <v>0.006225512194698899</v>
       </c>
       <c r="P5">
-        <v>0.00981221351095027</v>
+        <v>0.0062255121946989</v>
       </c>
       <c r="Q5">
-        <v>0.30710651562</v>
+        <v>0.3372103545872222</v>
       </c>
       <c r="R5">
-        <v>2.76395864058</v>
+        <v>3.034893191285</v>
       </c>
       <c r="S5">
-        <v>0.001101760062684826</v>
+        <v>0.0008804838747548886</v>
       </c>
       <c r="T5">
-        <v>0.001101760062684826</v>
+        <v>0.0008804838747548885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.581373333333334</v>
+        <v>14.69614866666667</v>
       </c>
       <c r="N6">
-        <v>28.74412</v>
+        <v>44.088446</v>
       </c>
       <c r="O6">
-        <v>0.6094546925631529</v>
+        <v>0.7133564251716612</v>
       </c>
       <c r="P6">
-        <v>0.6094546925631529</v>
+        <v>0.7133564251716613</v>
       </c>
       <c r="Q6">
-        <v>109.4926129105778</v>
+        <v>167.9424922977956</v>
       </c>
       <c r="R6">
-        <v>985.4335161952</v>
+        <v>1511.48243068016</v>
       </c>
       <c r="S6">
-        <v>0.392810252886824</v>
+        <v>0.4385116125374142</v>
       </c>
       <c r="T6">
-        <v>0.392810252886824</v>
+        <v>0.4385116125374142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.405531</v>
       </c>
       <c r="O7">
-        <v>0.284234263364153</v>
+        <v>0.2169031240449683</v>
       </c>
       <c r="P7">
-        <v>0.2842342633641529</v>
+        <v>0.2169031240449683</v>
       </c>
       <c r="Q7">
         <v>51.06458700575111</v>
@@ -883,10 +883,10 @@
         <v>459.58128305176</v>
       </c>
       <c r="S7">
-        <v>0.1831967728423121</v>
+        <v>0.1333338221022872</v>
       </c>
       <c r="T7">
-        <v>0.183196772842312</v>
+        <v>0.1333338221022872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.517079666666667</v>
+        <v>1.308497333333333</v>
       </c>
       <c r="N8">
-        <v>4.551239</v>
+        <v>3.925492</v>
       </c>
       <c r="O8">
-        <v>0.09649883056174381</v>
+        <v>0.0635149385886714</v>
       </c>
       <c r="P8">
-        <v>0.09649883056174381</v>
+        <v>0.06351493858867141</v>
       </c>
       <c r="Q8">
-        <v>17.33666050971556</v>
+        <v>14.95305391292445</v>
       </c>
       <c r="R8">
-        <v>156.02994458744</v>
+        <v>134.57748521632</v>
       </c>
       <c r="S8">
-        <v>0.06219614107296991</v>
+        <v>0.03904364937069271</v>
       </c>
       <c r="T8">
-        <v>0.06219614107296991</v>
+        <v>0.03904364937069271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.15426</v>
+        <v>0.1282543333333333</v>
       </c>
       <c r="N9">
-        <v>0.46278</v>
+        <v>0.384763</v>
       </c>
       <c r="O9">
-        <v>0.00981221351095027</v>
+        <v>0.006225512194698899</v>
       </c>
       <c r="P9">
-        <v>0.00981221351095027</v>
+        <v>0.0062255121946989</v>
       </c>
       <c r="Q9">
-        <v>1.7628298032</v>
+        <v>1.465646059831111</v>
       </c>
       <c r="R9">
-        <v>15.8654682288</v>
+        <v>13.19081453848</v>
       </c>
       <c r="S9">
-        <v>0.006324240534445458</v>
+        <v>0.00382692199164228</v>
       </c>
       <c r="T9">
-        <v>0.006324240534445458</v>
+        <v>0.00382692199164228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H10">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.581373333333334</v>
+        <v>14.69614866666667</v>
       </c>
       <c r="N10">
-        <v>28.74412</v>
+        <v>44.088446</v>
       </c>
       <c r="O10">
-        <v>0.6094546925631529</v>
+        <v>0.7133564251716612</v>
       </c>
       <c r="P10">
-        <v>0.6094546925631529</v>
+        <v>0.7133564251716613</v>
       </c>
       <c r="Q10">
-        <v>39.14134088508444</v>
+        <v>62.41909919341999</v>
       </c>
       <c r="R10">
-        <v>352.27206796576</v>
+        <v>561.77189274078</v>
       </c>
       <c r="S10">
-        <v>0.1404215280162892</v>
+        <v>0.1629813840794043</v>
       </c>
       <c r="T10">
-        <v>0.1404215280162892</v>
+        <v>0.1629813840794043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H11">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.405531</v>
       </c>
       <c r="O11">
-        <v>0.284234263364153</v>
+        <v>0.2169031240449683</v>
       </c>
       <c r="P11">
-        <v>0.2842342633641529</v>
+        <v>0.2169031240449683</v>
       </c>
       <c r="Q11">
-        <v>18.25453200920978</v>
+        <v>18.97914862387</v>
       </c>
       <c r="R11">
-        <v>164.290788082888</v>
+        <v>170.81233761483</v>
       </c>
       <c r="S11">
-        <v>0.06548905121777021</v>
+        <v>0.04955611265362723</v>
       </c>
       <c r="T11">
-        <v>0.0654890512177702</v>
+        <v>0.04955611265362724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H12">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.517079666666667</v>
+        <v>1.308497333333333</v>
       </c>
       <c r="N12">
-        <v>4.551239</v>
+        <v>3.925492</v>
       </c>
       <c r="O12">
-        <v>0.09649883056174381</v>
+        <v>0.0635149385886714</v>
       </c>
       <c r="P12">
-        <v>0.09649883056174381</v>
+        <v>0.06351493858867141</v>
       </c>
       <c r="Q12">
-        <v>6.197496988896888</v>
+        <v>5.55759380884</v>
       </c>
       <c r="R12">
-        <v>55.777472900072</v>
+        <v>50.01834427956</v>
       </c>
       <c r="S12">
-        <v>0.02223383198884947</v>
+        <v>0.01451133295450307</v>
       </c>
       <c r="T12">
-        <v>0.02223383198884947</v>
+        <v>0.01451133295450307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H13">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.15426</v>
+        <v>0.1282543333333333</v>
       </c>
       <c r="N13">
-        <v>0.46278</v>
+        <v>0.384763</v>
       </c>
       <c r="O13">
-        <v>0.00981221351095027</v>
+        <v>0.006225512194698899</v>
       </c>
       <c r="P13">
-        <v>0.00981221351095027</v>
+        <v>0.0062255121946989</v>
       </c>
       <c r="Q13">
-        <v>0.6301751361599999</v>
+        <v>0.54473591251</v>
       </c>
       <c r="R13">
-        <v>5.671576225439999</v>
+        <v>4.90262321259</v>
       </c>
       <c r="S13">
-        <v>0.002260784979167158</v>
+        <v>0.001422350116004176</v>
       </c>
       <c r="T13">
-        <v>0.002260784979167158</v>
+        <v>0.001422350116004176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H14">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.581373333333334</v>
+        <v>14.69614866666667</v>
       </c>
       <c r="N14">
-        <v>28.74412</v>
+        <v>44.088446</v>
       </c>
       <c r="O14">
-        <v>0.6094546925631529</v>
+        <v>0.7133564251716612</v>
       </c>
       <c r="P14">
-        <v>0.6094546925631529</v>
+        <v>0.7133564251716613</v>
       </c>
       <c r="Q14">
-        <v>2.171554390177778</v>
+        <v>4.202211851030444</v>
       </c>
       <c r="R14">
-        <v>19.5439895116</v>
+        <v>37.819906659274</v>
       </c>
       <c r="S14">
-        <v>0.007790560536352117</v>
+        <v>0.01097231957086646</v>
       </c>
       <c r="T14">
-        <v>0.007790560536352117</v>
+        <v>0.01097231957086646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H15">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.405531</v>
       </c>
       <c r="O15">
-        <v>0.284234263364153</v>
+        <v>0.2169031240449683</v>
       </c>
       <c r="P15">
-        <v>0.2842342633641529</v>
+        <v>0.2169031240449683</v>
       </c>
       <c r="Q15">
-        <v>1.012758076981111</v>
+        <v>1.277724355209889</v>
       </c>
       <c r="R15">
-        <v>9.114822692829998</v>
+        <v>11.499519196889</v>
       </c>
       <c r="S15">
-        <v>0.003633320511375716</v>
+        <v>0.003336243018163015</v>
       </c>
       <c r="T15">
-        <v>0.003633320511375715</v>
+        <v>0.003336243018163015</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H16">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.517079666666667</v>
+        <v>1.308497333333333</v>
       </c>
       <c r="N16">
-        <v>4.551239</v>
+        <v>3.925492</v>
       </c>
       <c r="O16">
-        <v>0.09649883056174381</v>
+        <v>0.0635149385886714</v>
       </c>
       <c r="P16">
-        <v>0.09649883056174381</v>
+        <v>0.06351493858867141</v>
       </c>
       <c r="Q16">
-        <v>0.3438359925855555</v>
+        <v>0.3741512913275556</v>
       </c>
       <c r="R16">
-        <v>3.09452393327</v>
+        <v>3.367361621948</v>
       </c>
       <c r="S16">
-        <v>0.001233528907648127</v>
+        <v>0.0009769396883909163</v>
       </c>
       <c r="T16">
-        <v>0.001233528907648127</v>
+        <v>0.0009769396883909166</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H17">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.15426</v>
+        <v>0.1282543333333333</v>
       </c>
       <c r="N17">
-        <v>0.46278</v>
+        <v>0.384763</v>
       </c>
       <c r="O17">
-        <v>0.00981221351095027</v>
+        <v>0.006225512194698899</v>
       </c>
       <c r="P17">
-        <v>0.00981221351095027</v>
+        <v>0.0062255121946989</v>
       </c>
       <c r="Q17">
-        <v>0.03496200059999999</v>
+        <v>0.03667300132188889</v>
       </c>
       <c r="R17">
-        <v>0.3146580053999999</v>
+        <v>0.330057011897</v>
       </c>
       <c r="S17">
-        <v>0.0001254279346528275</v>
+        <v>9.575621229755509E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001254279346528275</v>
+        <v>9.57562122975551E-05</v>
       </c>
     </row>
   </sheetData>
